--- a/modules/porous_flow/doc/tests/pressure_pulse.xlsx
+++ b/modules/porous_flow/doc/tests/pressure_pulse.xlsx
@@ -12,6 +12,7 @@
     <sheet name="1phase" sheetId="3" r:id="rId3"/>
     <sheet name="1phase_3comps" sheetId="4" r:id="rId4"/>
     <sheet name="2phase_2comps" sheetId="5" r:id="rId5"/>
+    <sheet name="1phase_MD" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>permeability</t>
   </si>
@@ -689,6 +690,117 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>MOOSE (1phase, MD formulation)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1phase_MD'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1phase_MD'!$B$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000801E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6019302756119E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3077194748173E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1367575992928E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0540998857403E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0194341482849E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0064419879799E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0019960817871E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0005862110672E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0001734449043E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0000865299339E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -697,11 +809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107176488"/>
-        <c:axId val="2104585048"/>
+        <c:axId val="2129748712"/>
+        <c:axId val="2129757656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107176488"/>
+        <c:axId val="2129748712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -736,12 +848,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104585048"/>
+        <c:crossAx val="2129757656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2104585048"/>
+        <c:axId val="2129757656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0E6"/>
@@ -778,7 +890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107176488"/>
+        <c:crossAx val="2129748712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -811,7 +923,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9188824" cy="5613613"/>
+    <xdr:ext cx="9199496" cy="5613613"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3196,4 +3308,525 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>B1+10</f>
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:L1" si="0">C1+10</f>
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>3000000.0000800998</v>
+      </c>
+      <c r="C5">
+        <v>2145955.3166427999</v>
+      </c>
+      <c r="D5">
+        <v>2021295.813942</v>
+      </c>
+      <c r="E5">
+        <v>2003107.0434226999</v>
+      </c>
+      <c r="F5">
+        <v>2000453.3121452001</v>
+      </c>
+      <c r="G5">
+        <v>2000066.1374301999</v>
+      </c>
+      <c r="H5">
+        <v>2000009.6493893</v>
+      </c>
+      <c r="I5">
+        <v>2000001.4079074999</v>
+      </c>
+      <c r="J5">
+        <v>2000000.2055702</v>
+      </c>
+      <c r="K5">
+        <v>2000000.0306835</v>
+      </c>
+      <c r="L5">
+        <v>2000000.0088215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>3000000.0000800998</v>
+      </c>
+      <c r="C6">
+        <v>2254729.9828357999</v>
+      </c>
+      <c r="D6">
+        <v>2053040.7414684</v>
+      </c>
+      <c r="E6">
+        <v>2010054.5377674</v>
+      </c>
+      <c r="F6">
+        <v>2001804.8215504</v>
+      </c>
+      <c r="G6">
+        <v>2000312.6160315999</v>
+      </c>
+      <c r="H6">
+        <v>2000052.8023281</v>
+      </c>
+      <c r="I6">
+        <v>2000008.7532883</v>
+      </c>
+      <c r="J6">
+        <v>2000001.4311523</v>
+      </c>
+      <c r="K6">
+        <v>2000000.2369385001</v>
+      </c>
+      <c r="L6">
+        <v>2000000.0739974999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>3000</v>
+      </c>
+      <c r="B7">
+        <v>3000000.0000800998</v>
+      </c>
+      <c r="C7">
+        <v>2337560.5314445002</v>
+      </c>
+      <c r="D7">
+        <v>2089045.7804832</v>
+      </c>
+      <c r="E7">
+        <v>2020523.7224387999</v>
+      </c>
+      <c r="F7">
+        <v>2004345.1030655</v>
+      </c>
+      <c r="G7">
+        <v>2000867.7523288999</v>
+      </c>
+      <c r="H7">
+        <v>2000166.0766487001</v>
+      </c>
+      <c r="I7">
+        <v>2000030.7722968999</v>
+      </c>
+      <c r="J7">
+        <v>2000005.5629864</v>
+      </c>
+      <c r="K7">
+        <v>2000001.012846</v>
+      </c>
+      <c r="L7">
+        <v>2000000.3422413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>4000</v>
+      </c>
+      <c r="B8">
+        <v>3000000.0000800998</v>
+      </c>
+      <c r="C8">
+        <v>2401978.9147319999</v>
+      </c>
+      <c r="D8">
+        <v>2125865.717371</v>
+      </c>
+      <c r="E8">
+        <v>2033812.3879433</v>
+      </c>
+      <c r="F8">
+        <v>2008197.9282817999</v>
+      </c>
+      <c r="G8">
+        <v>2001847.2481041001</v>
+      </c>
+      <c r="H8">
+        <v>2000394.0254325999</v>
+      </c>
+      <c r="I8">
+        <v>2000080.5455666</v>
+      </c>
+      <c r="J8">
+        <v>2000015.9320010999</v>
+      </c>
+      <c r="K8">
+        <v>2000003.1635075</v>
+      </c>
+      <c r="L8">
+        <v>2000001.1483173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>5000</v>
+      </c>
+      <c r="B9">
+        <v>3000000.0000800998</v>
+      </c>
+      <c r="C9">
+        <v>2453101.2395247999</v>
+      </c>
+      <c r="D9">
+        <v>2161661.2665157001</v>
+      </c>
+      <c r="E9">
+        <v>2049154.9658699001</v>
+      </c>
+      <c r="F9">
+        <v>2013354.9316177</v>
+      </c>
+      <c r="G9">
+        <v>2003339.2399730999</v>
+      </c>
+      <c r="H9">
+        <v>2000783.4547385999</v>
+      </c>
+      <c r="I9">
+        <v>2000174.8125686999</v>
+      </c>
+      <c r="J9">
+        <v>2000037.5052052001</v>
+      </c>
+      <c r="K9">
+        <v>2000008.0638466</v>
+      </c>
+      <c r="L9">
+        <v>2000003.1241816999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>6000</v>
+      </c>
+      <c r="B10">
+        <v>3000000.0000800998</v>
+      </c>
+      <c r="C10">
+        <v>2494451.3826522999</v>
+      </c>
+      <c r="D10">
+        <v>2195523.5377312</v>
+      </c>
+      <c r="E10">
+        <v>2065860.9333019</v>
+      </c>
+      <c r="F10">
+        <v>2019719.4107017999</v>
+      </c>
+      <c r="G10">
+        <v>2005399.1683636</v>
+      </c>
+      <c r="H10">
+        <v>2001378.4601326</v>
+      </c>
+      <c r="I10">
+        <v>2000332.7703495</v>
+      </c>
+      <c r="J10">
+        <v>2000076.8689021999</v>
+      </c>
+      <c r="K10">
+        <v>2000017.7859116001</v>
+      </c>
+      <c r="L10">
+        <v>2000007.3132495999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>7000</v>
+      </c>
+      <c r="B11">
+        <v>3000000.0000800998</v>
+      </c>
+      <c r="C11">
+        <v>2528491.9395846999</v>
+      </c>
+      <c r="D11">
+        <v>2227074.0422801999</v>
+      </c>
+      <c r="E11">
+        <v>2083361.9936446999</v>
+      </c>
+      <c r="F11">
+        <v>2027144.5369281999</v>
+      </c>
+      <c r="G11">
+        <v>2008051.0621966999</v>
+      </c>
+      <c r="H11">
+        <v>2002216.8655586001</v>
+      </c>
+      <c r="I11">
+        <v>2000574.6781615999</v>
+      </c>
+      <c r="J11">
+        <v>2000142.0283965999</v>
+      </c>
+      <c r="K11">
+        <v>2000035.1759987001</v>
+      </c>
+      <c r="L11">
+        <v>2000015.2740344999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>8000</v>
+      </c>
+      <c r="B12">
+        <v>3000000.0000800998</v>
+      </c>
+      <c r="C12">
+        <v>2556969.6811294998</v>
+      </c>
+      <c r="D12">
+        <v>2256228.9073867998</v>
+      </c>
+      <c r="E12">
+        <v>2101216.1707592001</v>
+      </c>
+      <c r="F12">
+        <v>2035461.9062977</v>
+      </c>
+      <c r="G12">
+        <v>2011292.2403583999</v>
+      </c>
+      <c r="H12">
+        <v>2003328.1600017999</v>
+      </c>
+      <c r="I12">
+        <v>2000920.5186024001</v>
+      </c>
+      <c r="J12">
+        <v>2000242.0763645</v>
+      </c>
+      <c r="K12">
+        <v>2000063.8737202</v>
+      </c>
+      <c r="L12">
+        <v>2000029.1596603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>9000</v>
+      </c>
+      <c r="B13">
+        <v>3000000.0000800998</v>
+      </c>
+      <c r="C13">
+        <v>2581142.5353183998</v>
+      </c>
+      <c r="D13">
+        <v>2283060.8811150002</v>
+      </c>
+      <c r="E13">
+        <v>2119093.7659740001</v>
+      </c>
+      <c r="F13">
+        <v>2044500.7842407001</v>
+      </c>
+      <c r="G13">
+        <v>2015099.3079872001</v>
+      </c>
+      <c r="H13">
+        <v>2004732.7195472999</v>
+      </c>
+      <c r="I13">
+        <v>2001388.8726254001</v>
+      </c>
+      <c r="J13">
+        <v>2000386.7899456001</v>
+      </c>
+      <c r="K13">
+        <v>2000108.2746486999</v>
+      </c>
+      <c r="L13">
+        <v>2000051.7639427001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>10000</v>
+      </c>
+      <c r="B14">
+        <v>3000000.0000800998</v>
+      </c>
+      <c r="C14">
+        <v>2601930.2756118998</v>
+      </c>
+      <c r="D14">
+        <v>2307719.4748173002</v>
+      </c>
+      <c r="E14">
+        <v>2136757.5992927998</v>
+      </c>
+      <c r="F14">
+        <v>2054099.8857402999</v>
+      </c>
+      <c r="G14">
+        <v>2019434.1482849</v>
+      </c>
+      <c r="H14">
+        <v>2006441.9879799001</v>
+      </c>
+      <c r="I14">
+        <v>2001996.0817871001</v>
+      </c>
+      <c r="J14">
+        <v>2000586.2110671999</v>
+      </c>
+      <c r="K14">
+        <v>2000173.4449042999</v>
+      </c>
+      <c r="L14">
+        <v>2000086.5299339001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>